--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>NR</t>
   </si>
@@ -38,15 +38,269 @@
     <t>Priority (%)</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Database ontwerp maken</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Time (hours)</t>
+  </si>
+  <si>
+    <t>Database tabellen structuur</t>
+  </si>
+  <si>
+    <t>Tabellen in database</t>
+  </si>
+  <si>
+    <t>Database in MySQL</t>
+  </si>
+  <si>
+    <t>Database tabellen vullen</t>
+  </si>
+  <si>
+    <t>Tabellen hebben gegevens</t>
+  </si>
+  <si>
+    <t>Primary Key in elke tabel</t>
+  </si>
+  <si>
+    <t>Tabellen met Primay Key</t>
+  </si>
+  <si>
+    <t>Basis structuur prototype</t>
+  </si>
+  <si>
+    <t>Powerpoint dia</t>
+  </si>
+  <si>
+    <t>Hoofdpagina website lay-out</t>
+  </si>
+  <si>
+    <t>Hoofdpagina in HTML/CSS</t>
+  </si>
+  <si>
+    <t>Functionerende webpage</t>
+  </si>
+  <si>
+    <t>Inlogpagina in HTML/PHP</t>
+  </si>
+  <si>
+    <t>Registratiepagina</t>
+  </si>
+  <si>
+    <t>Kunnen registreren op site</t>
+  </si>
+  <si>
+    <t>Uitschrijfpagina</t>
+  </si>
+  <si>
+    <t>Kunnen uitschrijven op site</t>
+  </si>
+  <si>
+    <t>Overzichtpagina ritten</t>
+  </si>
+  <si>
+    <t>Overzicht kunnen zien ritten</t>
+  </si>
+  <si>
+    <t>Persoonlijk overzicht vaste klant</t>
+  </si>
+  <si>
+    <t>Overzicht kunnen zien klant</t>
+  </si>
+  <si>
+    <t>Persoonlijk overzicht chauffeur</t>
+  </si>
+  <si>
+    <t>Overzicht kunnen zien chauffeur</t>
+  </si>
+  <si>
+    <t>Gegevens kunnen wijzigen</t>
+  </si>
+  <si>
+    <t>Gegevens wijzigen pagina</t>
+  </si>
+  <si>
+    <t>Pagina om gegevens te wijzigen</t>
+  </si>
+  <si>
+    <t>Procedure gegevens wijzigen</t>
+  </si>
+  <si>
+    <t>Opwaardeerpagina maken</t>
+  </si>
+  <si>
+    <t>Klanten kunnen opwaarderen</t>
+  </si>
+  <si>
+    <t>Opwaardeer procedure</t>
+  </si>
+  <si>
+    <t>Pagina om op te waarderen</t>
+  </si>
+  <si>
+    <t>Overzichtpagina eigenaar</t>
+  </si>
+  <si>
+    <t>Eigenaar kan volledig overzicht zien</t>
+  </si>
+  <si>
+    <t>Klachtenpagina</t>
+  </si>
+  <si>
+    <t>Klachten kunnen ingezien worden</t>
+  </si>
+  <si>
+    <t>Logboekpagina maken</t>
+  </si>
+  <si>
+    <t>Logboek kan worden ingezien</t>
+  </si>
+  <si>
+    <t>Pagina om in te loggen</t>
+  </si>
+  <si>
+    <t>Inlog/Regsitratie Procedure</t>
+  </si>
+  <si>
+    <t>Inloggen/Registreren mogelijk</t>
+  </si>
+  <si>
+    <t>Onkosten berekening</t>
+  </si>
+  <si>
+    <t>Onkosten kunnen betalen</t>
+  </si>
+  <si>
+    <t>UitschrijfProcedure</t>
+  </si>
+  <si>
+    <t>Rit boeken klant</t>
+  </si>
+  <si>
+    <t>Rit kunnen boeken klant</t>
+  </si>
+  <si>
+    <t>Rit boeken chauffeur</t>
+  </si>
+  <si>
+    <t>Rit kunnen boeken chauffeur</t>
+  </si>
+  <si>
+    <t>Betaling klant ontwikkelen</t>
+  </si>
+  <si>
+    <t>Klant kan betalen voor rit</t>
+  </si>
+  <si>
+    <t>Annuleren rit klant</t>
+  </si>
+  <si>
+    <t>Klant kan rit annuleren optijd</t>
+  </si>
+  <si>
+    <t>Chauffer staat klaar</t>
+  </si>
+  <si>
+    <t>Chauffeur kan melding sturen</t>
+  </si>
+  <si>
+    <t>Inbox Pagina maken</t>
+  </si>
+  <si>
+    <t>Klant/Chauffeur kan meldingen zien</t>
+  </si>
+  <si>
+    <t>Melding procedure</t>
+  </si>
+  <si>
+    <t>Meldingen kunnen worden ontvangen</t>
+  </si>
+  <si>
+    <t>Rit kan worden opgeslagen</t>
+  </si>
+  <si>
+    <t>Klant kan rit opnieuw selecteren</t>
+  </si>
+  <si>
+    <t>Terugrit boeken</t>
+  </si>
+  <si>
+    <t>Omgekeerde rit kan geboekt worden</t>
+  </si>
+  <si>
+    <t>Chauffeur kan auto aanmelden</t>
+  </si>
+  <si>
+    <t>Chauffeur auto aanmelden</t>
+  </si>
+  <si>
+    <t>Auto aanmeld pagina</t>
+  </si>
+  <si>
+    <t>Auto aanmeld pagina maken</t>
+  </si>
+  <si>
+    <t>Eigenaar kan verwijderen uit database</t>
+  </si>
+  <si>
+    <t>Eigenaar kan verwijderen</t>
+  </si>
+  <si>
+    <t>Logboek procedure</t>
+  </si>
+  <si>
+    <t>Logboek is zichtbaar op pagina</t>
+  </si>
+  <si>
+    <t>Klachtenboek procedure</t>
+  </si>
+  <si>
+    <t>Chauffeur/klant kan klacht maken</t>
+  </si>
+  <si>
+    <t>Gegevens wijzigen procedure</t>
+  </si>
+  <si>
+    <t>Gegevens kunnen worden gewijzigd</t>
+  </si>
+  <si>
+    <t>Pickup punten bedenken</t>
+  </si>
+  <si>
+    <t>Punten zichtbaar op kaart</t>
+  </si>
+  <si>
+    <t>Punten bruikbaar voor ritten</t>
+  </si>
+  <si>
+    <t>Een rit kunnen aanmelden</t>
+  </si>
+  <si>
+    <t>Google maps integratie</t>
+  </si>
+  <si>
+    <t>Rit kunnen zien op google maps</t>
+  </si>
+  <si>
+    <t>TOTAAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -70,17 +324,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -91,6 +504,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="B2:F45" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B2:F45"/>
+  <sortState ref="B3:F45">
+    <sortCondition ref="B2:B45"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="NR"/>
+    <tableColumn id="2" name="Backlog-Item"/>
+    <tableColumn id="3" name="Definition of Done (DOD)"/>
+    <tableColumn id="4" name="Priority (%)"/>
+    <tableColumn id="5" name="Time (hours)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,37 +820,769 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F2"/>
+  <dimension ref="A2:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>100</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="14">
+        <v>100</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="14">
+        <v>100</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="14">
+        <v>100</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14">
+        <v>100</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14">
+        <v>100</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="14">
+        <v>100</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7">
+        <v>100</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="14">
+        <v>80</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7">
+        <v>75</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="14">
+        <v>50</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="14">
+        <v>100</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7">
+        <v>100</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="14">
+        <v>100</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7">
+        <v>100</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="14">
+        <v>50</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="7">
+        <v>75</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="14">
+        <v>80</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="7">
+        <v>100</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <v>23</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="14">
+        <v>100</v>
+      </c>
+      <c r="F25" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7">
+        <v>80</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>25</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="14">
+        <v>100</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="7">
+        <v>100</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>27</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="14">
+        <v>100</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="7">
+        <v>100</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
+        <v>29</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="14">
+        <v>75</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="7">
+        <v>100</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="14">
+        <v>100</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="7">
+        <v>80</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="12">
+        <v>33</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="14">
+        <v>75</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="7">
+        <v>100</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="12">
+        <v>35</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="14">
+        <v>100</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="7">
+        <v>80</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
+        <v>37</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="14">
+        <v>80</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="7">
+        <v>75</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
+        <v>39</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="14">
+        <v>100</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="7">
+        <v>100</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="12">
+        <v>41</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="14">
+        <v>100</v>
+      </c>
+      <c r="F43" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="10">
+        <v>75</v>
+      </c>
+      <c r="F44" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45">
+        <f>SUM(F3:F44)</f>
+        <v>43.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documentatie/Product Backlog.xlsx
+++ b/Documentatie/Product Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>NR</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>TOTAAL</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Kolom1</t>
   </si>
 </sst>
 </file>
@@ -316,7 +322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -454,11 +460,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -476,6 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -507,17 +525,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="B2:F45" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B2:F45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="B2:G45" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B2:G45"/>
   <sortState ref="B3:F45">
     <sortCondition ref="B2:B45"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" name="NR"/>
     <tableColumn id="2" name="Backlog-Item"/>
     <tableColumn id="3" name="Definition of Done (DOD)"/>
     <tableColumn id="4" name="Priority (%)"/>
     <tableColumn id="5" name="Time (hours)"/>
+    <tableColumn id="6" name="Kolom1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -820,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F45"/>
+  <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +853,7 @@
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -850,8 +869,11 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>1</v>
       </c>
@@ -868,7 +890,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>2</v>
       </c>
@@ -884,8 +906,11 @@
       <c r="F4" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -901,8 +926,11 @@
       <c r="F5" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -918,8 +946,11 @@
       <c r="F6" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>5</v>
       </c>
@@ -935,8 +966,11 @@
       <c r="F7" s="12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -953,7 +987,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -969,8 +1003,11 @@
       <c r="F9" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -987,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>9</v>
       </c>
@@ -1004,7 +1041,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -1021,7 +1058,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>11</v>
       </c>
@@ -1038,7 +1075,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -1055,7 +1092,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>13</v>
       </c>
@@ -1072,7 +1109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -1089,7 +1126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>15</v>
       </c>
@@ -1106,7 +1143,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>16</v>
       </c>
@@ -1123,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>17</v>
       </c>
@@ -1140,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>18</v>
       </c>
@@ -1157,7 +1194,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <v>19</v>
       </c>
@@ -1174,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>20</v>
       </c>
@@ -1191,7 +1228,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <v>21</v>
       </c>
@@ -1208,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>22</v>
       </c>
@@ -1224,8 +1261,11 @@
       <c r="F24" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <v>23</v>
       </c>
@@ -1242,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>24</v>
       </c>
@@ -1259,7 +1299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <v>25</v>
       </c>
@@ -1276,7 +1316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>26</v>
       </c>
@@ -1293,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <v>27</v>
       </c>
@@ -1310,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>28</v>
       </c>
@@ -1327,7 +1367,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <v>29</v>
       </c>
@@ -1344,7 +1384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>30</v>
       </c>
